--- a/data/trans_dic/P29_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P29_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume diariamente raciones de verdura u hortalizas</t>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas (tasa de respuesta: 99,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>30,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>22,96%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21,95%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19,78%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,8; 40,88</t>
+          <t>25,23; 48,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,83; 36,67</t>
+          <t>22,3; 38,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,3; 38,27</t>
+          <t>24,51; 41,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,47; 20,11</t>
+          <t>16,25; 32,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,56; 28,68</t>
+          <t>9,94; 20,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,61; 23,59</t>
+          <t>10,33; 20,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,69; 27,63</t>
+          <t>10,52; 21,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,95; 29,67</t>
+          <t>10,96; 21,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,32; 29,15</t>
+          <t>18,48; 29,97</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17,49; 27,05</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19,06; 29,71</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15,22; 24,43</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>25,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>23,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22,96%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22,26%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>22,92%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,02; 36,43</t>
+          <t>22,48; 38,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,56; 32,57</t>
+          <t>17,01; 32,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,09; 34,11</t>
+          <t>18,43; 35,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,41; 24,36</t>
+          <t>13,38; 27,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,0; 28,59</t>
+          <t>11,87; 24,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,94; 29,39</t>
+          <t>15,16; 28,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,46; 27,92</t>
+          <t>12,83; 26,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,37; 28,3</t>
+          <t>18,32; 42,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,24; 29,95</t>
+          <t>18,15; 28,55</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>18,1; 28,0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17,25; 27,59</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17,75; 30,69</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,73%</t>
+          <t>41,27%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>44,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>16,76%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27,29%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>31,09%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>32,25%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,02; 33,12</t>
+          <t>5,74; 36,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,02; 57,12</t>
+          <t>14,57; 61,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,31; 64,51</t>
+          <t>15,44; 77,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,93; 26,02</t>
+          <t>5,76; 41,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,37; 37,6</t>
+          <t>5,7; 30,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,94; 39,3</t>
+          <t>6,19; 33,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,42; 26,74</t>
+          <t>8,93; 37,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,69; 44,23</t>
+          <t>26,83; 61,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,8; 50,84</t>
+          <t>8,47; 27,69</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15,37; 41,26</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>16,74; 52,7</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>19,06; 46,03</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>30,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>22,32%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22,9%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22,36%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,13; 33,9</t>
+          <t>24,81; 37,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,21; 34,06</t>
+          <t>23,63; 34,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,6; 36,82</t>
+          <t>24,63; 38,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 20,28</t>
+          <t>16,53; 27,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,32; 26,44</t>
+          <t>12,44; 19,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,0; 25,03</t>
+          <t>14,54; 22,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,04; 25,68</t>
+          <t>13,67; 21,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,11; 28,74</t>
+          <t>18,14; 29,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,86; 29,71</t>
+          <t>19,04; 26,69</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>19,47; 25,88</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>20,63; 28,61</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18,8; 26,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas (tasa de respuesta: 99,78%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>141513</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>110991</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>124732</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>124910</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>73238</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>61780</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>61396</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>86633</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>214751</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>172771</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>186128</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>211543</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>107566; 208410</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>81664; 139847</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>93329; 159417</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>82772; 166517</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>50580; 102167</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>43480; 86451</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>42849; 87157</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>61422; 118355</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>172770; 280260</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>137674; 212961</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>150271; 234181</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>162812; 261292</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>106042</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>76736</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>82717</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>79083</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>74413</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>74066</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>63684</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>113998</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>180455</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>150803</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>146401</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>193081</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>80779; 138820</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>54141; 103721</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>59465; 113029</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>54784; 112628</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>50481; 103952</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>51304; 98083</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42994; 87916</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>79359; 183516</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>142418; 224031</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>118852; 183890</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>113451; 181423</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>149547; 258548</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19123</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30006</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>35322</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24493</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14894</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13969</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16959</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>49928</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>34017</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>43975</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>52281</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>74421</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5839; 37569</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11598; 48578</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13218; 66151</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6875; 49689</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5771; 31346</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5050; 27382</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7371; 31180</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29874; 68434</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17186; 56185</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24777; 66499</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>28142; 88615</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43986; 106204</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>266678</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>217733</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>242771</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>228486</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>162545</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>149815</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>142039</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>250560</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>429223</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>367549</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>384810</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>479046</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>220202; 335328</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>180550; 264538</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>194343; 301807</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>171599; 280950</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>128752; 205423</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>122277; 188716</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>112800; 177497</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>200421; 321385</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>366198; 513276</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>312518; 415474</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>332915; 461792</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>402901; 565302</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
